--- a/NEW HR/DONE/PARAISO, MARIA LORENA.xlsx
+++ b/NEW HR/DONE/PARAISO, MARIA LORENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC485F7F-F213-4589-A064-2AEEDD18172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -298,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -677,6 +676,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -689,20 +697,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,7 +1398,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1441,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1505,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1565,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1631,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1694,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1792,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1851,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1916,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1959,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2034,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2220,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2286,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2344,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2410,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2466,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2541,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2584,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2650,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2706,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2804,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2867,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,25 +2933,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2964,25 +2963,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2994,13 +2993,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3009,14 +3008,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3320,7 +3319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3330,7 +3329,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3338,34 +3337,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3377,16 +3376,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3395,16 +3394,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3415,16 +3414,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3432,7 +3431,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3445,24 +3444,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3521,7 +3520,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3543,7 +3542,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3589,7 +3588,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>43202</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3659,7 +3658,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3679,7 +3678,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>43361</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3775,7 +3774,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3795,7 +3794,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -3839,7 +3838,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3877,7 +3876,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3969,7 +3968,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3989,7 +3988,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -4069,7 +4068,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -4089,7 +4088,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>83</v>
@@ -4135,7 +4134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
@@ -4153,7 +4152,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43831</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -4247,7 +4246,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -4267,7 +4266,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -4287,7 +4286,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -4307,7 +4306,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44044</v>
       </c>
@@ -4327,7 +4326,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44075</v>
       </c>
@@ -4347,7 +4346,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44105</v>
       </c>
@@ -4367,7 +4366,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44136</v>
       </c>
@@ -4387,7 +4386,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44166</v>
       </c>
@@ -4411,7 +4410,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>45</v>
       </c>
@@ -4429,7 +4428,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44197</v>
       </c>
@@ -4449,7 +4448,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44228</v>
       </c>
@@ -4469,7 +4468,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44256</v>
       </c>
@@ -4489,7 +4488,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44287</v>
       </c>
@@ -4509,7 +4508,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44317</v>
       </c>
@@ -4529,7 +4528,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44348</v>
       </c>
@@ -4549,7 +4548,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44378</v>
       </c>
@@ -4569,7 +4568,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44409</v>
       </c>
@@ -4589,7 +4588,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44440</v>
       </c>
@@ -4609,7 +4608,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44470</v>
       </c>
@@ -4629,7 +4628,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44501</v>
       </c>
@@ -4649,7 +4648,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44531</v>
       </c>
@@ -4675,7 +4674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>46</v>
       </c>
@@ -4693,7 +4692,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44562</v>
       </c>
@@ -4713,7 +4712,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44593</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44621</v>
       </c>
@@ -4753,7 +4752,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44652</v>
       </c>
@@ -4773,7 +4772,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44682</v>
       </c>
@@ -4793,7 +4792,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44713</v>
       </c>
@@ -4813,7 +4812,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44743</v>
       </c>
@@ -4833,7 +4832,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44774</v>
       </c>
@@ -4853,7 +4852,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44805</v>
       </c>
@@ -4873,7 +4872,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44835</v>
       </c>
@@ -4893,7 +4892,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
@@ -4913,7 +4912,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44896</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>47</v>
       </c>
@@ -4957,7 +4956,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44927</v>
       </c>
@@ -4977,7 +4976,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44958</v>
       </c>
@@ -4997,7 +4996,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44986</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -5039,7 +5038,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -5055,7 +5054,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5071,7 +5070,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5087,7 +5086,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5103,7 +5102,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5119,7 +5118,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5135,7 +5134,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5151,7 +5150,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5167,7 +5166,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5183,7 +5182,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5199,7 +5198,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5215,7 +5214,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5231,7 +5230,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5247,7 +5246,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5263,7 +5262,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5279,7 +5278,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5295,7 +5294,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5311,7 +5310,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5327,7 +5326,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5343,7 +5342,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5359,7 +5358,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5375,7 +5374,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5391,7 +5390,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5407,7 +5406,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5423,7 +5422,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5439,7 +5438,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5455,7 +5454,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5471,7 +5470,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5487,7 +5486,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5503,7 +5502,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5519,7 +5518,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5535,7 +5534,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5551,7 +5550,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5567,7 +5566,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5583,7 +5582,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5599,7 +5598,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5615,7 +5614,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5631,7 +5630,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5647,7 +5646,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5663,7 +5662,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5679,7 +5678,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5695,7 +5694,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5711,7 +5710,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5727,7 +5726,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5743,7 +5742,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5759,7 +5758,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5775,7 +5774,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5791,7 +5790,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5807,7 +5806,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5823,7 +5822,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5839,7 +5838,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5855,7 +5854,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5871,7 +5870,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5887,7 +5886,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5903,7 +5902,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -5921,23 +5920,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5960,34 +5959,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A31" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6000,16 +5999,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6021,19 +6020,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6045,19 +6044,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6065,7 +6064,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6078,24 +6077,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6149,12 +6148,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.620000000000005</v>
+        <v>61.620000000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6176,7 +6175,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43252</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43344</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43405</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43435</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6338,7 +6337,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43525</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43586</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43647</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43709</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>55</v>
@@ -6456,7 +6455,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43739</v>
       </c>
@@ -6480,7 +6479,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43770</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>44</v>
       </c>
@@ -6522,7 +6521,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43831</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43862</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43891</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44075</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
@@ -6636,7 +6635,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44743</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44774</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44835</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44901</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>47</v>
       </c>
@@ -6748,7 +6747,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44986</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45017</v>
       </c>
@@ -6796,9 +6795,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="20"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>45096</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
@@ -6807,12 +6810,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>1</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="49">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6828,7 +6835,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6844,7 +6851,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6860,7 +6867,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6876,7 +6883,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6892,7 +6899,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6908,7 +6915,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6924,7 +6931,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6940,7 +6947,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6956,7 +6963,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6972,7 +6979,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6988,7 +6995,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -7004,7 +7011,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -7020,7 +7027,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7036,7 +7043,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7052,7 +7059,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7068,7 +7075,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7084,7 +7091,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7100,7 +7107,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7116,7 +7123,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7132,7 +7139,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7148,7 +7155,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7164,7 +7171,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7180,7 +7187,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7196,7 +7203,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7212,7 +7219,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7228,7 +7235,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7244,7 +7251,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7260,7 +7267,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7276,7 +7283,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7292,7 +7299,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7308,7 +7315,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7324,7 +7331,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7340,7 +7347,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7356,7 +7363,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7372,7 +7379,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7388,7 +7395,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7404,7 +7411,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7420,7 +7427,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7436,7 +7443,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7452,7 +7459,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7468,7 +7475,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7484,7 +7491,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7500,7 +7507,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7516,7 +7523,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7532,7 +7539,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7548,7 +7555,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7564,7 +7571,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7580,7 +7587,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7596,7 +7603,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7612,7 +7619,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7628,7 +7635,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7644,7 +7651,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7660,7 +7667,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7676,7 +7683,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7692,7 +7699,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7708,7 +7715,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7724,7 +7731,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7740,7 +7747,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7756,7 +7763,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7772,7 +7779,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7788,7 +7795,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7804,7 +7811,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7820,7 +7827,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7836,7 +7843,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7852,7 +7859,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7868,7 +7875,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7884,7 +7891,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7900,7 +7907,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7916,7 +7923,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7932,7 +7939,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7948,7 +7955,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7964,7 +7971,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7980,7 +7987,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7996,7 +8003,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8012,7 +8019,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8028,7 +8035,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8044,7 +8051,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8060,7 +8067,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8076,7 +8083,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8092,7 +8099,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8108,7 +8115,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8124,7 +8131,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8140,7 +8147,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8156,7 +8163,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8172,7 +8179,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8188,7 +8195,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8204,7 +8211,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8220,7 +8227,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8236,7 +8243,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8252,7 +8259,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8268,7 +8275,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8299,10 +8306,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8325,7 +8332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8333,21 +8340,21 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8360,7 +8367,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8389,7 +8396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>52.625</v>
       </c>
@@ -8413,17 +8420,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -8447,7 +8454,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
         <v>130.25</v>
@@ -8478,7 +8485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8504,7 +8511,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8556,7 +8563,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8582,7 +8589,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8608,7 +8615,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8634,7 +8641,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8660,7 +8667,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8680,7 +8687,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8700,7 +8707,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8720,7 +8727,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8741,7 +8748,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8762,7 +8769,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8783,7 +8790,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8804,7 +8811,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8825,7 +8832,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8846,7 +8853,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8867,7 +8874,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8888,7 +8895,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8909,7 +8916,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8930,7 +8937,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8951,7 +8958,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8972,7 +8979,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8993,7 +9000,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9014,7 +9021,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9035,7 +9042,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9056,7 +9063,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9077,7 +9084,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9098,7 +9105,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9119,7 +9126,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9140,7 +9147,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9149,7 +9156,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9158,7 +9165,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9167,7 +9174,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9176,7 +9183,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9185,7 +9192,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9194,7 +9201,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9203,7 +9210,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9212,7 +9219,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9221,7 +9228,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9230,7 +9237,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9239,7 +9246,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9248,7 +9255,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9257,7 +9264,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9266,7 +9273,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9275,7 +9282,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9284,7 +9291,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9293,7 +9300,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9302,7 +9309,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9311,7 +9318,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9320,7 +9327,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9329,7 +9336,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9338,7 +9345,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9347,7 +9354,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9356,7 +9363,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9365,7 +9372,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9374,7 +9381,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9383,7 +9390,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9392,7 +9399,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9401,7 +9408,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/PARAISO, MARIA LORENA.xlsx
+++ b/NEW HR/DONE/PARAISO, MARIA LORENA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -676,15 +676,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -697,11 +688,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,7 +1398,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1505,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1631,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1694,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1792,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1851,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1959,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2034,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2220,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2286,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2344,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2466,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2541,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2584,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2650,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2706,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2804,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2867,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,10 +3343,10 @@
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane ySplit="3900" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,14 +3376,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3394,14 +3394,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3414,14 +3414,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3447,18 +3447,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.625</v>
+        <v>56.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3515,7 +3515,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.625</v>
+        <v>83.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5023,15 +5023,19 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45017</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -5039,15 +5043,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45047</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5055,15 +5063,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45078</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5071,15 +5083,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45108</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5087,7 +5103,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45139</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5920,17 +5938,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5965,10 +5983,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A31" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="3510" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,14 +6017,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6020,17 +6038,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6044,17 +6062,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6080,18 +6098,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6138,7 +6156,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.625</v>
+        <v>45.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6820,10 +6838,16 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="40">
+        <v>45145</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="39">
+        <v>1</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
@@ -6833,7 +6857,9 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="49">
+        <v>45153</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
@@ -8457,7 +8483,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>130.25</v>
+        <v>140.25</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/NEW HR/DONE/PARAISO, MARIA LORENA.xlsx
+++ b/NEW HR/DONE/PARAISO, MARIA LORENA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>12/13-15/2019</t>
+  </si>
+  <si>
+    <t>9/2,6/2023</t>
+  </si>
+  <si>
+    <t>10/3,4/2023</t>
+  </si>
+  <si>
+    <t>9/7,8/2023</t>
+  </si>
+  <si>
+    <t>9/25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -676,6 +688,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -688,20 +709,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,7 +1410,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1453,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1517,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1577,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1643,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1706,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1804,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1863,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1928,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1971,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2046,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2232,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2298,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2356,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2422,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2478,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2553,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2596,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2662,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2718,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2816,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2879,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3376,14 +3388,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3394,14 +3406,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3414,14 +3426,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3447,18 +3459,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3505,7 +3517,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.625</v>
+        <v>59.125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3515,7 +3527,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.625</v>
+        <v>86.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5107,13 +5119,15 @@
         <v>45139</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5121,15 +5135,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45170</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5137,7 +5155,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45200</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5938,17 +5958,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5986,7 +6006,7 @@
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6017,14 +6037,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6038,17 +6058,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6062,17 +6082,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6098,18 +6118,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6156,7 +6176,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.625</v>
+        <v>41.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6166,7 +6186,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.620000000000005</v>
+        <v>56.620000000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6862,10 +6882,16 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="40">
+        <v>45173</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>2</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13" t="str">
@@ -6875,11 +6901,15 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
@@ -6888,16 +6918,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="39">
+        <v>1</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="49">
+        <v>45168</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="39"/>
+      <c r="D42" s="39">
+        <v>2</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -6907,11 +6947,15 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
@@ -6920,14 +6964,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="39">
+        <v>2</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
@@ -6936,10 +6986,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="39">
+        <v>2</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
@@ -8483,7 +8537,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>140.25</v>
+        <v>145.25</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
